--- a/lin_R1_by_R2 (1 by 100)100.xlsx
+++ b/lin_R1_by_R2 (1 by 100)100.xlsx
@@ -224,6 +224,86 @@
         <v>-0.1373129904197368</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>255.73511462376163</v>
+      </c>
+      <c r="B3" t="n">
+        <v>321.95143448794767</v>
+      </c>
+      <c r="C3" t="n">
+        <v>405.3128422404624</v>
+      </c>
+      <c r="D3" t="n">
+        <v>510.2586368230384</v>
+      </c>
+      <c r="E3" t="n">
+        <v>642.377564483974</v>
+      </c>
+      <c r="F3" t="n">
+        <v>808.7054398953212</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1018.0998289404004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1281.7117463963648</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1613.5794881334648</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2031.3762215610436</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2557.3511462376164</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3219.5143448794765</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4053.1284224046235</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5102.586368230384</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6423.77564483974</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8087.054398953212</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10180.998289404004</v>
+      </c>
+      <c r="R3" t="n">
+        <v>12817.117463963647</v>
+      </c>
+      <c r="S3" t="n">
+        <v>16135.794881334647</v>
+      </c>
+      <c r="T3" t="n">
+        <v>20313.762215610437</v>
+      </c>
+      <c r="U3" t="n">
+        <v>25573.511462376162</v>
+      </c>
+      <c r="V3" t="n">
+        <v>32195.143448794766</v>
+      </c>
+      <c r="W3" t="n">
+        <v>40531.284224046234</v>
+      </c>
+      <c r="X3" t="n">
+        <v>51025.86368230384</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>64237.756448397406</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>80870.54398953212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -397,6 +477,86 @@
         <v>-0.08443341757907405</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>255.73511462376163</v>
+      </c>
+      <c r="B3" t="n">
+        <v>321.95143448794767</v>
+      </c>
+      <c r="C3" t="n">
+        <v>405.3128422404624</v>
+      </c>
+      <c r="D3" t="n">
+        <v>510.2586368230384</v>
+      </c>
+      <c r="E3" t="n">
+        <v>642.377564483974</v>
+      </c>
+      <c r="F3" t="n">
+        <v>808.7054398953212</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1018.0998289404004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1281.7117463963648</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1613.5794881334648</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2031.3762215610436</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2557.3511462376164</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3219.5143448794765</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4053.1284224046235</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5102.586368230384</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6423.77564483974</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8087.054398953212</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10180.998289404004</v>
+      </c>
+      <c r="R3" t="n">
+        <v>12817.117463963647</v>
+      </c>
+      <c r="S3" t="n">
+        <v>16135.794881334647</v>
+      </c>
+      <c r="T3" t="n">
+        <v>20313.762215610437</v>
+      </c>
+      <c r="U3" t="n">
+        <v>25573.511462376162</v>
+      </c>
+      <c r="V3" t="n">
+        <v>32195.143448794766</v>
+      </c>
+      <c r="W3" t="n">
+        <v>40531.284224046234</v>
+      </c>
+      <c r="X3" t="n">
+        <v>51025.86368230384</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>64237.756448397406</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>80870.54398953212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -570,6 +730,86 @@
         <v>-0.04230856819495396</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>255.73511462376163</v>
+      </c>
+      <c r="B3" t="n">
+        <v>321.95143448794767</v>
+      </c>
+      <c r="C3" t="n">
+        <v>405.3128422404624</v>
+      </c>
+      <c r="D3" t="n">
+        <v>510.2586368230384</v>
+      </c>
+      <c r="E3" t="n">
+        <v>642.377564483974</v>
+      </c>
+      <c r="F3" t="n">
+        <v>808.7054398953212</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1018.0998289404004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1281.7117463963648</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1613.5794881334648</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2031.3762215610436</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2557.3511462376164</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3219.5143448794765</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4053.1284224046235</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5102.586368230384</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6423.77564483974</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8087.054398953212</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10180.998289404004</v>
+      </c>
+      <c r="R3" t="n">
+        <v>12817.117463963647</v>
+      </c>
+      <c r="S3" t="n">
+        <v>16135.794881334647</v>
+      </c>
+      <c r="T3" t="n">
+        <v>20313.762215610437</v>
+      </c>
+      <c r="U3" t="n">
+        <v>25573.511462376162</v>
+      </c>
+      <c r="V3" t="n">
+        <v>32195.143448794766</v>
+      </c>
+      <c r="W3" t="n">
+        <v>40531.284224046234</v>
+      </c>
+      <c r="X3" t="n">
+        <v>51025.86368230384</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>64237.756448397406</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>80870.54398953212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -743,6 +983,86 @@
         <v>0.014096399120744145</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>255.73511462376163</v>
+      </c>
+      <c r="B3" t="n">
+        <v>321.95143448794767</v>
+      </c>
+      <c r="C3" t="n">
+        <v>405.3128422404624</v>
+      </c>
+      <c r="D3" t="n">
+        <v>510.2586368230384</v>
+      </c>
+      <c r="E3" t="n">
+        <v>642.377564483974</v>
+      </c>
+      <c r="F3" t="n">
+        <v>808.7054398953212</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1018.0998289404004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1281.7117463963648</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1613.5794881334648</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2031.3762215610436</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2557.3511462376164</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3219.5143448794765</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4053.1284224046235</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5102.586368230384</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6423.77564483974</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8087.054398953212</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10180.998289404004</v>
+      </c>
+      <c r="R3" t="n">
+        <v>12817.117463963647</v>
+      </c>
+      <c r="S3" t="n">
+        <v>16135.794881334647</v>
+      </c>
+      <c r="T3" t="n">
+        <v>20313.762215610437</v>
+      </c>
+      <c r="U3" t="n">
+        <v>25573.511462376162</v>
+      </c>
+      <c r="V3" t="n">
+        <v>32195.143448794766</v>
+      </c>
+      <c r="W3" t="n">
+        <v>40531.284224046234</v>
+      </c>
+      <c r="X3" t="n">
+        <v>51025.86368230384</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>64237.756448397406</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>80870.54398953212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/lin_R1_by_R2 (1 by 100)100.xlsx
+++ b/lin_R1_by_R2 (1 by 100)100.xlsx
@@ -66,73 +66,73 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>3.432317470612278</v>
+        <v>2.168301100678288</v>
       </c>
       <c r="B1" t="n">
-        <v>2.9571552914457144</v>
+        <v>1.869960336604279</v>
       </c>
       <c r="C1" t="n">
-        <v>2.5482873900382517</v>
+        <v>1.6132946274852005</v>
       </c>
       <c r="D1" t="n">
-        <v>2.1967580579973487</v>
+        <v>1.3924332035279383</v>
       </c>
       <c r="E1" t="n">
-        <v>1.8944388256337452</v>
+        <v>1.2023350376584065</v>
       </c>
       <c r="F1" t="n">
-        <v>1.634355938780189</v>
+        <v>1.0386716320041753</v>
       </c>
       <c r="G1" t="n">
-        <v>1.4105584936700968</v>
+        <v>0.897726929757668</v>
       </c>
       <c r="H1" t="n">
-        <v>1.2179376001947617</v>
+        <v>0.7763103142428546</v>
       </c>
       <c r="I1" t="n">
-        <v>1.052106272567097</v>
+        <v>0.6716820876496664</v>
       </c>
       <c r="J1" t="n">
-        <v>0.9092982698633234</v>
+        <v>0.5814895349719909</v>
       </c>
       <c r="K1" t="n">
-        <v>0.7862799128331971</v>
+        <v>0.5037120687116052</v>
       </c>
       <c r="L1" t="n">
-        <v>0.680274547517884</v>
+        <v>0.43661416397123753</v>
       </c>
       <c r="M1" t="n">
-        <v>0.5888977421780784</v>
+        <v>0.3787049764488502</v>
       </c>
       <c r="N1" t="n">
-        <v>0.510101687830832</v>
+        <v>0.3287036934072433</v>
       </c>
       <c r="O1" t="n">
-        <v>0.4421274949922784</v>
+        <v>0.2855098027890241</v>
       </c>
       <c r="P1" t="n">
-        <v>0.38346426406161305</v>
+        <v>0.2481775815259542</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.33281396651624456</v>
+        <v>0.2158942034859521</v>
       </c>
       <c r="R1" t="n">
-        <v>0.28906131101861304</v>
+        <v>0.18796095275608055</v>
       </c>
       <c r="S1" t="n">
-        <v>0.25124788598891923</v>
+        <v>0.16377710108739044</v>
       </c>
       <c r="T1" t="n">
-        <v>0.21854997094295955</v>
+        <v>0.14282607105299527</v>
       </c>
       <c r="U1" t="n">
-        <v>0.19025949530782726</v>
+        <v>0.12466356027417787</v>
       </c>
       <c r="V1" t="n">
-        <v>0.1657676975494615</v>
+        <v>0.10890734822007116</v>
       </c>
       <c r="W1" t="n">
-        <v>0.14455110102383334</v>
+        <v>0.0952285466732964</v>
       </c>
       <c r="X1" t="n">
         <v>0.1261594774980261</v>
@@ -146,73 +146,73 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-5.723186789340479</v>
+        <v>-3.581787358062148</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.91690725335661</v>
+        <v>-3.078153571722405</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.224444693406197</v>
+        <v>-2.6457444113601616</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.6298747703533345</v>
+        <v>-2.2744518984037456</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.119437921540835</v>
+        <v>-1.9556101681985856</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.6811920023173608</v>
+        <v>-1.6817837463705885</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.304890536016268</v>
+        <v>-1.446593081933736</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.9817500071512486</v>
+        <v>-1.2445645248022004</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.704234112651806</v>
+        <v>-1.0710015419712215</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.4658767673476738</v>
+        <v>-0.9218742647608714</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.2611300912997974</v>
+        <v>-0.7937247431391171</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.0852338725676975</v>
+        <v>-0.6835856736906053</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.9341036139895067</v>
+        <v>-0.5889106845116973</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.8042345004264556</v>
+        <v>-0.5075145330628221</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.6926190227431787</v>
+        <v>-0.43752180690528963</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.5966763157590935</v>
+        <v>-0.3773229178663698</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.5141915438577543</v>
+        <v>-0.32553635224753774</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.44326390501676455</v>
+        <v>-0.28097628727826246</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.38226202736440645</v>
+        <v>-0.24262481060544697</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.32978570677913094</v>
+        <v>-0.20960808818472035</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.28463308364159834</v>
+        <v>-0.18117591906715197</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.2457724851573174</v>
+        <v>-0.15668419545180298</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.21231826971981474</v>
+        <v>-0.13557985488626442</v>
       </c>
       <c r="X2" t="n">
         <v>-0.18351010417743435</v>
@@ -226,73 +226,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>255.73511462376163</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>321.95143448794767</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>405.3128422404624</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>510.2586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>642.377564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>808.7054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>1018.0998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>1281.7117463963648</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>1613.5794881334648</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>2031.3762215610436</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>2557.3511462376164</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>3219.5143448794765</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>4053.1284224046235</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>5102.586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>6423.77564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>8087.054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>10180.998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>12817.117463963647</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>16135.794881334647</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>20313.762215610437</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>25573.511462376162</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>32195.143448794766</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>40531.284224046234</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -319,73 +319,73 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.19711501148437474</v>
+        <v>0.0056005752084367835</v>
       </c>
       <c r="B1" t="n">
-        <v>0.10455980613912733</v>
+        <v>-0.01727008740535001</v>
       </c>
       <c r="C1" t="n">
-        <v>0.04560867731695557</v>
+        <v>-0.03186898621297251</v>
       </c>
       <c r="D1" t="n">
-        <v>0.008152500352608059</v>
+        <v>-0.04131726874426144</v>
       </c>
       <c r="E1" t="n">
-        <v>-0.01564637934301235</v>
+        <v>-0.04765657597853563</v>
       </c>
       <c r="F1" t="n">
-        <v>-0.03082781566672357</v>
+        <v>-0.05229158804414678</v>
       </c>
       <c r="G1" t="n">
-        <v>-0.0406350835932526</v>
+        <v>-0.05632377985319256</v>
       </c>
       <c r="H1" t="n">
-        <v>-0.047184763100207194</v>
+        <v>-0.060860957987728684</v>
       </c>
       <c r="I1" t="n">
-        <v>-0.051923206403840294</v>
+        <v>-0.06732762919146455</v>
       </c>
       <c r="J1" t="n">
-        <v>-0.05596632656678203</v>
+        <v>-0.07729590291829931</v>
       </c>
       <c r="K1" t="n">
-        <v>-0.06040836010103223</v>
+        <v>-0.08970914077275251</v>
       </c>
       <c r="L1" t="n">
-        <v>-0.06663733268619242</v>
+        <v>-0.09738173276623258</v>
       </c>
       <c r="M1" t="n">
-        <v>-0.07626392489230176</v>
+        <v>-0.09731541071037988</v>
       </c>
       <c r="N1" t="n">
-        <v>-0.08867706500365426</v>
+        <v>-0.09540979830103505</v>
       </c>
       <c r="O1" t="n">
-        <v>-0.09706711097295082</v>
+        <v>-0.09519148508358105</v>
       </c>
       <c r="P1" t="n">
-        <v>-0.09748723427890274</v>
+        <v>-0.09627972220964691</v>
       </c>
       <c r="Q1" t="n">
-        <v>-0.09552521480750674</v>
+        <v>-0.0972853221271984</v>
       </c>
       <c r="R1" t="n">
-        <v>-0.09513798227128153</v>
+        <v>-0.09756080548308851</v>
       </c>
       <c r="S1" t="n">
-        <v>-0.09617004156221835</v>
+        <v>-0.0969587193399247</v>
       </c>
       <c r="T1" t="n">
-        <v>-0.0972231871468373</v>
+        <v>-0.09510174320216479</v>
       </c>
       <c r="U1" t="n">
-        <v>-0.09756902532540086</v>
+        <v>-0.09138362105382054</v>
       </c>
       <c r="V1" t="n">
-        <v>-0.0970542455015336</v>
+        <v>-0.0851510634293773</v>
       </c>
       <c r="W1" t="n">
-        <v>-0.09533022142474919</v>
+        <v>-0.07587947265651487</v>
       </c>
       <c r="X1" t="n">
         <v>-0.09180223364347356</v>
@@ -399,73 +399,73 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.18665989744911923</v>
+        <v>0.09912134503112155</v>
       </c>
       <c r="B2" t="n">
-        <v>0.15603320570854856</v>
+        <v>0.0773454888194554</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1269545701960181</v>
+        <v>0.0588630320759037</v>
       </c>
       <c r="D2" t="n">
-        <v>0.10120918946390682</v>
+        <v>0.04309228151741327</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07912139005457969</v>
+        <v>0.02939079807747969</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06037082277689398</v>
+        <v>0.01712501103928849</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04438709521684589</v>
+        <v>0.0057086364011013566</v>
       </c>
       <c r="H2" t="n">
-        <v>0.030529411259415076</v>
+        <v>-0.0053069178433462144</v>
       </c>
       <c r="I2" t="n">
-        <v>0.018161851898805804</v>
+        <v>-0.015875969248077063</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0066919703588242604</v>
+        <v>-0.02437874989087131</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.004348847713101918</v>
+        <v>-0.02667006589929066</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.014987669374460957</v>
+        <v>-0.021959804394357886</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.023808629664427372</v>
+        <v>-0.018468045580690068</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.02681339173877501</v>
+        <v>-0.02023014376821414</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.022461578679746946</v>
+        <v>-0.02480829834999316</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.018553777049242878</v>
+        <v>-0.029904177664634015</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.01991562546300678</v>
+        <v>-0.03518645437914421</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.02436523215962394</v>
+        <v>-0.041298099839124885</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.02945547683286216</v>
+        <v>-0.04856012029125118</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.034697675633702095</v>
+        <v>-0.05692795478058192</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.04071526088738698</v>
+        <v>-0.06621234540460924</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.047875362827007904</v>
+        <v>-0.07593819453661814</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.05615102897603107</v>
+        <v>-0.08519764147225417</v>
       </c>
       <c r="X2" t="n">
         <v>-0.06536827340711478</v>
@@ -479,73 +479,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>255.73511462376163</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>321.95143448794767</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>405.3128422404624</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>510.2586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>642.377564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>808.7054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>1018.0998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>1281.7117463963648</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>1613.5794881334648</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>2031.3762215610436</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>2557.3511462376164</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>3219.5143448794765</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>4053.1284224046235</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>5102.586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>6423.77564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>8087.054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>10180.998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>12817.117463963647</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>16135.794881334647</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>20313.762215610437</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>25573.511462376162</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>32195.143448794766</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>40531.284224046234</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -572,73 +572,73 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.0023862234988755717</v>
+        <v>-0.0015755717393884003</v>
       </c>
       <c r="B1" t="n">
-        <v>4.35213963911357E-4</v>
+        <v>-0.001986291078807856</v>
       </c>
       <c r="C1" t="n">
-        <v>-7.816874678926491E-4</v>
+        <v>-0.0021819101229889806</v>
       </c>
       <c r="D1" t="n">
-        <v>-0.0015267030039298026</v>
+        <v>-0.0022004122485141876</v>
       </c>
       <c r="E1" t="n">
-        <v>-0.0019596785898655963</v>
+        <v>-0.0020374853457476674</v>
       </c>
       <c r="F1" t="n">
-        <v>-0.002172063121467585</v>
+        <v>-0.0016409619330399422</v>
       </c>
       <c r="G1" t="n">
-        <v>-0.0022057020507687667</v>
+        <v>-8.872708370972206E-4</v>
       </c>
       <c r="H1" t="n">
-        <v>-0.0020600340843415633</v>
+        <v>4.767889285017056E-4</v>
       </c>
       <c r="I1" t="n">
-        <v>-0.001687706518269496</v>
+        <v>0.00294345875239586</v>
       </c>
       <c r="J1" t="n">
-        <v>-9.730882328066239E-4</v>
+        <v>0.007060434168278504</v>
       </c>
       <c r="K1" t="n">
-        <v>3.219082365122578E-4</v>
+        <v>0.008110970493113358</v>
       </c>
       <c r="L1" t="n">
-        <v>0.002664119708059089</v>
+        <v>-0.007117964523590522</v>
       </c>
       <c r="M1" t="n">
-        <v>0.006651249626962883</v>
+        <v>-0.014364203086578637</v>
       </c>
       <c r="N1" t="n">
-        <v>0.008639659221727602</v>
+        <v>-0.014833214072552182</v>
       </c>
       <c r="O1" t="n">
-        <v>-0.00576511718945469</v>
+        <v>-0.016769299630373383</v>
       </c>
       <c r="P1" t="n">
-        <v>-0.01416528699096357</v>
+        <v>-0.028927243653922883</v>
       </c>
       <c r="Q1" t="n">
-        <v>-0.014833392217089366</v>
+        <v>-0.034424360678995666</v>
       </c>
       <c r="R1" t="n">
-        <v>-0.016309634613777754</v>
+        <v>-0.03393964431031285</v>
       </c>
       <c r="S1" t="n">
-        <v>-0.02763416107484973</v>
+        <v>-0.03578020828052033</v>
       </c>
       <c r="T1" t="n">
-        <v>-0.03446623346786381</v>
+        <v>-0.03791399876994088</v>
       </c>
       <c r="U1" t="n">
-        <v>-0.03388635562066499</v>
+        <v>-0.039381903757374395</v>
       </c>
       <c r="V1" t="n">
-        <v>-0.03556950893216234</v>
+        <v>-0.04027100368847708</v>
       </c>
       <c r="W1" t="n">
-        <v>-0.03775646379193162</v>
+        <v>-0.040269051757936956</v>
       </c>
       <c r="X1" t="n">
         <v>-0.03927338645319255</v>
@@ -652,73 +652,73 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.006310611513547813</v>
+        <v>0.002366331211075628</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0047937190134197645</v>
+        <v>0.0014329283551224215</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00352973929870755</v>
+        <v>5.815782400079014E-4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0024538617928398913</v>
+        <v>-2.2818974670526534E-4</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0015111080771289195</v>
+        <v>-0.0010305939944407212</v>
       </c>
       <c r="F2" t="n">
-        <v>6.542475555767421E-4</v>
+        <v>-0.0018491307385403966</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.5770296932541544E-4</v>
+        <v>-0.0026784363149236746</v>
       </c>
       <c r="H2" t="n">
-        <v>-9.595924970165299E-4</v>
+        <v>-0.003418454120574529</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0017762729219970368</v>
+        <v>-0.0036141144980472517</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0026064135407409205</v>
+        <v>-0.0013371542960732468</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.003363842285317944</v>
+        <v>0.008749775908778915</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0036480402514472545</v>
+        <v>0.012722571344057054</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.001756927149937904</v>
+        <v>0.0015535486191223492</v>
       </c>
       <c r="N2" t="n">
-        <v>0.007544475029028989</v>
+        <v>-0.008755209344936456</v>
       </c>
       <c r="O2" t="n">
-        <v>0.013379360697215603</v>
+        <v>-0.02023668196091728</v>
       </c>
       <c r="P2" t="n">
-        <v>0.002534433964913037</v>
+        <v>-0.02798210598431978</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.007858388944721434</v>
+        <v>-0.02290863184710403</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.019122683784567454</v>
+        <v>-0.024162276717295348</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.02808305748915167</v>
+        <v>-0.027590753652773227</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.02314697756799926</v>
+        <v>-0.030573206562767616</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.023875754276557762</v>
+        <v>-0.03401714394744117</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.02731249569897472</v>
+        <v>-0.038097529431857784</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.030303463934299855</v>
+        <v>-0.04273734750215249</v>
       </c>
       <c r="X2" t="n">
         <v>-0.03368651612807517</v>
@@ -732,73 +732,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>255.73511462376163</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>321.95143448794767</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>405.3128422404624</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>510.2586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>642.377564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>808.7054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>1018.0998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>1281.7117463963648</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>1613.5794881334648</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>2031.3762215610436</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>2557.3511462376164</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>3219.5143448794765</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>4053.1284224046235</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>5102.586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>6423.77564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>8087.054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>10180.998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>12817.117463963647</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>16135.794881334647</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>20313.762215610437</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>25573.511462376162</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>32195.143448794766</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>40531.284224046234</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -825,73 +825,73 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-0.020663317826021717</v>
+        <v>-0.0037008667585966388</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.012572942254745575</v>
+        <v>-0.0016306814869252106</v>
       </c>
       <c r="C1" t="n">
-        <v>-0.007311788288675783</v>
+        <v>-3.197714938614256E-4</v>
       </c>
       <c r="D1" t="n">
-        <v>-0.003931877797054204</v>
+        <v>5.0436368115658E-4</v>
       </c>
       <c r="E1" t="n">
-        <v>-0.0017774059482106633</v>
+        <v>0.001015766036113363</v>
       </c>
       <c r="F1" t="n">
-        <v>-4.1239523877057853E-4</v>
+        <v>0.0013238469268708906</v>
       </c>
       <c r="G1" t="n">
-        <v>4.46418593381391E-4</v>
+        <v>0.001495585829003377</v>
       </c>
       <c r="H1" t="n">
-        <v>9.801835246518896E-4</v>
+        <v>0.0015693541309218485</v>
       </c>
       <c r="I1" t="n">
-        <v>0.001302961559279263</v>
+        <v>0.0015628066359330275</v>
       </c>
       <c r="J1" t="n">
-        <v>0.001484807090809145</v>
+        <v>0.0014777597087044661</v>
       </c>
       <c r="K1" t="n">
-        <v>0.0015662201546365938</v>
+        <v>0.0013146183729558128</v>
       </c>
       <c r="L1" t="n">
-        <v>0.001566470020690959</v>
+        <v>0.0011979304560310131</v>
       </c>
       <c r="M1" t="n">
-        <v>0.001488524418616034</v>
+        <v>0.0023208224828796626</v>
       </c>
       <c r="N1" t="n">
-        <v>0.0013312178818859117</v>
+        <v>0.005561315208041892</v>
       </c>
       <c r="O1" t="n">
-        <v>0.001192545047615714</v>
+        <v>0.005794832193856944</v>
       </c>
       <c r="P1" t="n">
-        <v>0.0020912033581989755</v>
+        <v>0.0056361682386039495</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.005388430481396732</v>
+        <v>0.006186149180417977</v>
       </c>
       <c r="R1" t="n">
-        <v>0.005827519879690337</v>
+        <v>0.007198094772585189</v>
       </c>
       <c r="S1" t="n">
-        <v>0.005624157376803361</v>
+        <v>0.00822833325551555</v>
       </c>
       <c r="T1" t="n">
-        <v>0.00611060272114538</v>
+        <v>0.009379225475746997</v>
       </c>
       <c r="U1" t="n">
-        <v>0.007105937154987874</v>
+        <v>0.010777785940474688</v>
       </c>
       <c r="V1" t="n">
-        <v>0.008136323254801348</v>
+        <v>0.012465030513228519</v>
       </c>
       <c r="W1" t="n">
-        <v>0.009268537225457963</v>
+        <v>0.01453242597199874</v>
       </c>
       <c r="X1" t="n">
         <v>0.010644141538777028</v>
@@ -905,73 +905,73 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00784604411390266</v>
+        <v>-0.002964072337445936</v>
       </c>
       <c r="B2" t="n">
-        <v>7.847990223528313E-4</v>
+        <v>-0.002907150615404787</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0020639640192336296</v>
+        <v>-0.002513898549417551</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0029397711924515086</v>
+        <v>-0.002007551797469065</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.002930356104843416</v>
+        <v>-0.001482496327921588</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0025551136678296877</v>
+        <v>-9.699691747336238E-4</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.002053647017594016</v>
+        <v>-4.6946004285366804E-4</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0015283528707327205</v>
+        <v>3.7881595671330836E-5</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0010144139451387835</v>
+        <v>5.87465164715087E-4</v>
       </c>
       <c r="J2" t="n">
-        <v>-5.133802908458596E-4</v>
+        <v>0.0012432272538476076</v>
       </c>
       <c r="K2" t="n">
-        <v>-7.786927093161309E-6</v>
+        <v>0.002142189172313289</v>
       </c>
       <c r="L2" t="n">
-        <v>5.360972697220107E-4</v>
+        <v>0.0036318758701694587</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001178641393010931</v>
+        <v>0.0061385941001933465</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002046910215598936</v>
+        <v>0.006169863276863564</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00346095656814578</v>
+        <v>0.005068265625032286</v>
       </c>
       <c r="P2" t="n">
-        <v>0.005915957238763724</v>
+        <v>0.005662820047879016</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.006333885713157643</v>
+        <v>0.006823430597164417</v>
       </c>
       <c r="R2" t="n">
-        <v>0.005080780725672849</v>
+        <v>0.0078404484897809</v>
       </c>
       <c r="S2" t="n">
-        <v>0.005573376851263961</v>
+        <v>0.008804807772692063</v>
       </c>
       <c r="T2" t="n">
-        <v>0.006721620622462321</v>
+        <v>0.00995897972812435</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007759153426432747</v>
+        <v>0.011259116353525299</v>
       </c>
       <c r="V2" t="n">
-        <v>0.00871290604537677</v>
+        <v>0.012688763778146839</v>
       </c>
       <c r="W2" t="n">
-        <v>0.009850700710736075</v>
+        <v>0.014236168315417158</v>
       </c>
       <c r="X2" t="n">
         <v>0.011139692362565914</v>
@@ -985,73 +985,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>255.73511462376163</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>321.95143448794767</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>405.3128422404624</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>510.2586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>642.377564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>808.7054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>1018.0998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>1281.7117463963648</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>1613.5794881334648</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>2031.3762215610436</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>2557.3511462376164</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>3219.5143448794765</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>4053.1284224046235</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>5102.586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>6423.77564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>8087.054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>10180.998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>12817.117463963647</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>16135.794881334647</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>20313.762215610437</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>25573.511462376162</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>32195.143448794766</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>40531.284224046234</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>

--- a/lin_R1_by_R2 (1 by 100)100.xlsx
+++ b/lin_R1_by_R2 (1 by 100)100.xlsx
@@ -226,73 +226,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>520.6987464315688</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>655.5208837720694</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>825.2518985424289</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>1038.9305862064455</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1307.936116065505</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>1646.5940135182295</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>2072.9390465262477</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>2609.675642772265</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>3285.3869832262812</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>4136.057160761343</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>5206.987464315687</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>6555.208837720694</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>8252.518985424289</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>10389.305862064455</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>13079.36116065505</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>16465.940135182296</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>20729.390465262477</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>26096.756427722645</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>32853.86983226281</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>41360.57160761343</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>52069.87464315688</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>65552.08837720694</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>82525.18985424288</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -479,73 +479,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>520.6987464315688</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>655.5208837720694</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>825.2518985424289</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>1038.9305862064455</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1307.936116065505</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>1646.5940135182295</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>2072.9390465262477</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>2609.675642772265</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>3285.3869832262812</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>4136.057160761343</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>5206.987464315687</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>6555.208837720694</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>8252.518985424289</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>10389.305862064455</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>13079.36116065505</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>16465.940135182296</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>20729.390465262477</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>26096.756427722645</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>32853.86983226281</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>41360.57160761343</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>52069.87464315688</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>65552.08837720694</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>82525.18985424288</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -732,73 +732,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>520.6987464315688</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>655.5208837720694</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>825.2518985424289</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>1038.9305862064455</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1307.936116065505</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>1646.5940135182295</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>2072.9390465262477</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>2609.675642772265</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>3285.3869832262812</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>4136.057160761343</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>5206.987464315687</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>6555.208837720694</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>8252.518985424289</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>10389.305862064455</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>13079.36116065505</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>16465.940135182296</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>20729.390465262477</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>26096.756427722645</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>32853.86983226281</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>41360.57160761343</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>52069.87464315688</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>65552.08837720694</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>82525.18985424288</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -985,73 +985,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>520.6987464315688</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>655.5208837720694</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>825.2518985424289</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>1038.9305862064455</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1307.936116065505</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>1646.5940135182295</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>2072.9390465262477</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>2609.675642772265</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>3285.3869832262812</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>4136.057160761343</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>5206.987464315687</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>6555.208837720694</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>8252.518985424289</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>10389.305862064455</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>13079.36116065505</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>16465.940135182296</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>20729.390465262477</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>26096.756427722645</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>32853.86983226281</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>41360.57160761343</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>52069.87464315688</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>65552.08837720694</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>82525.18985424288</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>

--- a/lin_R1_by_R2 (1 by 100)100.xlsx
+++ b/lin_R1_by_R2 (1 by 100)100.xlsx
@@ -66,242 +66,359 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>2.168301100678288</v>
+        <v>15.906179085204982</v>
       </c>
       <c r="B1" t="n">
-        <v>1.869960336604279</v>
+        <v>15.278613175639494</v>
       </c>
       <c r="C1" t="n">
-        <v>1.6132946274852005</v>
+        <v>14.41349906670481</v>
       </c>
       <c r="D1" t="n">
-        <v>1.3924332035279383</v>
+        <v>13.292763271686281</v>
       </c>
       <c r="E1" t="n">
-        <v>1.2023350376584065</v>
+        <v>11.950903911210142</v>
       </c>
       <c r="F1" t="n">
-        <v>1.0386716320041753</v>
+        <v>10.484769883443784</v>
       </c>
       <c r="G1" t="n">
-        <v>0.897726929757668</v>
+        <v>9.028022540376217</v>
       </c>
       <c r="H1" t="n">
-        <v>0.7763103142428546</v>
+        <v>7.699032784822791</v>
       </c>
       <c r="I1" t="n">
-        <v>0.6716820876496664</v>
+        <v>6.559614035179046</v>
       </c>
       <c r="J1" t="n">
-        <v>0.5814895349719909</v>
+        <v>5.61142576803066</v>
       </c>
       <c r="K1" t="n">
-        <v>0.5037120687116052</v>
+        <v>4.82172345676723</v>
       </c>
       <c r="L1" t="n">
-        <v>0.43661416397123753</v>
+        <v>4.152931840226005</v>
       </c>
       <c r="M1" t="n">
-        <v>0.3787049764488502</v>
+        <v>3.5784742503386147</v>
       </c>
       <c r="N1" t="n">
-        <v>0.3287036934072433</v>
+        <v>3.083084939182072</v>
       </c>
       <c r="O1" t="n">
-        <v>0.2855098027890241</v>
+        <v>2.65658307720296</v>
       </c>
       <c r="P1" t="n">
-        <v>0.2481775815259542</v>
+        <v>2.2898695636674935</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.2158942034859521</v>
+        <v>1.974527798382328</v>
       </c>
       <c r="R1" t="n">
-        <v>0.18796095275608055</v>
+        <v>1.70326184584892</v>
       </c>
       <c r="S1" t="n">
-        <v>0.16377710108739044</v>
+        <v>1.4698560265765879</v>
       </c>
       <c r="T1" t="n">
-        <v>0.14282607105299527</v>
+        <v>1.2689794505803245</v>
       </c>
       <c r="U1" t="n">
-        <v>0.12466356027417787</v>
+        <v>1.096053747911587</v>
       </c>
       <c r="V1" t="n">
-        <v>0.10890734822007116</v>
+        <v>0.947148397104826</v>
       </c>
       <c r="W1" t="n">
-        <v>0.0952285466732964</v>
+        <v>0.818888762664683</v>
       </c>
       <c r="X1" t="n">
-        <v>0.1261594774980261</v>
+        <v>0.7083772228146132</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.11020551606523951</v>
+        <v>0.6131255289873118</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.09635595530241121</v>
+        <v>0.5309967702788657</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>0.460155580531563</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>0.39902541610219605</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>0.3462518992432931</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>0.30067136496035507</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>0.2612838718172296</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>0.22723004232834007</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>0.19777118878257435</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>0.172272257717795</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>0.15018719263285293</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>0.13104637145160447</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>0.11444582408386746</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>0.10003797731353592</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>0.08752371017232392</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.581787358062148</v>
+        <v>-35.77796843022611</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.078153571722405</v>
+        <v>-29.99194423381366</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.6457444113601616</v>
+        <v>-25.557908561356054</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.2744518984037456</v>
+        <v>-22.10808579272259</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.9556101681985856</v>
+        <v>-19.315464615104776</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.6817837463705885</v>
+        <v>-16.92120460146745</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.446593081933736</v>
+        <v>-14.766617548126357</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.2445645248022004</v>
+        <v>-12.795508170936015</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.0710015419712215</v>
+        <v>-11.016352563838598</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.9218742647608714</v>
+        <v>-9.451161642303173</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.7937247431391171</v>
+        <v>-8.103349506042475</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.6835856736906053</v>
+        <v>-6.953539200050291</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.5889106845116973</v>
+        <v>-5.971824384424797</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.5075145330628221</v>
+        <v>-5.130372019153177</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.43752180690528963</v>
+        <v>-4.407774296168681</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.3773229178663698</v>
+        <v>-3.7872689693639052</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.32553635224753774</v>
+        <v>-3.254562516006648</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.28097628727826246</v>
+        <v>-2.79721067767041</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.24262481060544697</v>
+        <v>-2.4045135333911234</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.20960808818472035</v>
+        <v>-2.0673019256121545</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.18117591906715197</v>
+        <v>-1.7777095421935258</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.15668419545180298</v>
+        <v>-1.5289870278144926</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.13557985488626442</v>
+        <v>-1.3153435082891287</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.18351010417743435</v>
+        <v>-1.131810317677297</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.15869518582940273</v>
+        <v>-0.974124132067113</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.1373129904197368</v>
+        <v>-0.8386267235241499</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.7221789700485997</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.6220870936132152</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.5360393868174544</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.4620519361829556</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.39842206238580363</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.34368837978766964</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.29659653378860873</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.2560698084653342</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.22118391184186886</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.19114534467639668</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.16527284316481608</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.14298145845286275</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.12376889802579209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>520.6987464315688</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="B3" t="n">
-        <v>655.5208837720694</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="C3" t="n">
-        <v>825.2518985424289</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="D3" t="n">
-        <v>1038.9305862064455</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>1307.936116065505</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="F3" t="n">
-        <v>1646.5940135182295</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="G3" t="n">
-        <v>2072.9390465262477</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>2609.675642772265</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="I3" t="n">
-        <v>3285.3869832262812</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="J3" t="n">
-        <v>4136.057160761343</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="K3" t="n">
-        <v>5206.987464315687</v>
+        <v>151.285930408472</v>
       </c>
       <c r="L3" t="n">
-        <v>6555.208837720694</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="M3" t="n">
-        <v>8252.518985424289</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>10389.305862064455</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>13079.36116065505</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="P3" t="n">
-        <v>16465.940135182296</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="Q3" t="n">
-        <v>20729.390465262477</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>26096.756427722645</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="S3" t="n">
-        <v>32853.86983226281</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="T3" t="n">
-        <v>41360.57160761343</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>52069.87464315688</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="V3" t="n">
-        <v>65552.08837720694</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="W3" t="n">
-        <v>82525.18985424288</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="X3" t="n">
-        <v>51025.86368230384</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>64237.756448397406</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="Z3" t="n">
-        <v>80870.54398953212</v>
+        <v>4784.081180284991</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6022.801369947008</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7582.257694815012</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9545.496890774482</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12017.068603998207</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15128.593040847201</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>19045.770223814936</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>23977.204121953306</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>30185.51157290287</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>38001.307587134346</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>47840.811802849916</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>60228.01369947008</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -319,242 +436,359 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.0056005752084367835</v>
+        <v>13.893277134491026</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.01727008740535001</v>
+        <v>12.497726592970732</v>
       </c>
       <c r="C1" t="n">
-        <v>-0.03186898621297251</v>
+        <v>10.779631537676037</v>
       </c>
       <c r="D1" t="n">
-        <v>-0.04131726874426144</v>
+        <v>8.848241371023136</v>
       </c>
       <c r="E1" t="n">
-        <v>-0.04765657597853563</v>
+        <v>6.886895553725651</v>
       </c>
       <c r="F1" t="n">
-        <v>-0.05229158804414678</v>
+        <v>5.090304532352018</v>
       </c>
       <c r="G1" t="n">
-        <v>-0.05632377985319256</v>
+        <v>3.5935697880577386</v>
       </c>
       <c r="H1" t="n">
-        <v>-0.060860957987728684</v>
+        <v>2.442102970832901</v>
       </c>
       <c r="I1" t="n">
-        <v>-0.06732762919146455</v>
+        <v>1.6093668523354059</v>
       </c>
       <c r="J1" t="n">
-        <v>-0.07729590291829931</v>
+        <v>1.0336866042239359</v>
       </c>
       <c r="K1" t="n">
-        <v>-0.08970914077275251</v>
+        <v>0.6480072940825858</v>
       </c>
       <c r="L1" t="n">
-        <v>-0.09738173276623258</v>
+        <v>0.3950200622891725</v>
       </c>
       <c r="M1" t="n">
-        <v>-0.09731541071037988</v>
+        <v>0.2313591525653943</v>
       </c>
       <c r="N1" t="n">
-        <v>-0.09540979830103505</v>
+        <v>0.12642528256208538</v>
       </c>
       <c r="O1" t="n">
-        <v>-0.09519148508358105</v>
+        <v>0.05951720815098182</v>
       </c>
       <c r="P1" t="n">
-        <v>-0.09627972220964691</v>
+        <v>0.016985838552495088</v>
       </c>
       <c r="Q1" t="n">
-        <v>-0.0972853221271984</v>
+        <v>-0.01002966686446755</v>
       </c>
       <c r="R1" t="n">
-        <v>-0.09756080548308851</v>
+        <v>-0.027233852128449147</v>
       </c>
       <c r="S1" t="n">
-        <v>-0.0969587193399247</v>
+        <v>-0.03829353012660979</v>
       </c>
       <c r="T1" t="n">
-        <v>-0.09510174320216479</v>
+        <v>-0.04558740921607048</v>
       </c>
       <c r="U1" t="n">
-        <v>-0.09138362105382054</v>
+        <v>-0.0507118385000969</v>
       </c>
       <c r="V1" t="n">
-        <v>-0.0851510634293773</v>
+        <v>-0.054844263340640145</v>
       </c>
       <c r="W1" t="n">
-        <v>-0.07587947265651487</v>
+        <v>-0.05905278751590726</v>
       </c>
       <c r="X1" t="n">
-        <v>-0.09180223364347356</v>
+        <v>-0.06461603326727298</v>
       </c>
       <c r="Y1" t="n">
-        <v>-0.08581554888261936</v>
+        <v>-0.07316784120343478</v>
       </c>
       <c r="Z1" t="n">
-        <v>-0.07682363551160155</v>
+        <v>-0.0852112342048459</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>-0.09558716615017426</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>-0.09790662742160408</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>-0.09598744217878659</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>-0.09505004310069755</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>-0.09582227044730496</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>-0.09698699437952174</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>-0.09755280040026174</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>-0.09729874303219768</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>-0.09596677939167018</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>-0.0930096121717198</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>-0.0877752010232703</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>-0.07966274608230178</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>-0.06838365157964678</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.09912134503112155</v>
+        <v>-25.073844770972208</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0773454888194554</v>
+        <v>-17.628592402569268</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0588630320759037</v>
+        <v>-11.765172218255126</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04309228151741327</v>
+        <v>-7.347292470283778</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02939079807747969</v>
+        <v>-4.224436655156495</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01712501103928849</v>
+        <v>-2.182967752170804</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0057086364011013566</v>
+        <v>-0.9581152714438448</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0053069178433462144</v>
+        <v>-0.28707241368209035</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.015875969248077063</v>
+        <v>0.044058095476214705</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.02437874989087131</v>
+        <v>0.1841524334714596</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.02667006589929066</v>
+        <v>0.2253236280821925</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.021959804394357886</v>
+        <v>0.21974648171345465</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.018468045580690068</v>
+        <v>0.19496371690855568</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.02023014376821414</v>
+        <v>0.16458350901051494</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.02480829834999316</v>
+        <v>0.13479835295834336</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.029904177664634015</v>
+        <v>0.10804442641492573</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.03518645437914421</v>
+        <v>0.08494719751143653</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.041298099839124885</v>
+        <v>0.06531380225587732</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.04856012029125118</v>
+        <v>0.04861911340821995</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.05692795478058192</v>
+        <v>0.03423140684807975</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.06621234540460924</v>
+        <v>0.021509037609778115</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.07593819453661814</v>
+        <v>0.009843113681594363</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.08519764147225417</v>
+        <v>-0.0012855577711334547</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.06536827340711478</v>
+        <v>-0.012088827394351503</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.07508497575389814</v>
+        <v>-0.02171104531918329</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.08443341757907405</v>
+        <v>-0.026818737225822495</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.02407137736757249</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.01913322718681846</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.019082132215587858</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.022983963992316628</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.02802888364310427</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.03318198196725171</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.03892081728291082</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.04575433252832122</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.05372906648474306</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.06271179859398335</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.07235630952378018</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.08192182907436936</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.09022486269434563</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>520.6987464315688</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="B3" t="n">
-        <v>655.5208837720694</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="C3" t="n">
-        <v>825.2518985424289</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="D3" t="n">
-        <v>1038.9305862064455</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>1307.936116065505</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="F3" t="n">
-        <v>1646.5940135182295</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="G3" t="n">
-        <v>2072.9390465262477</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>2609.675642772265</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="I3" t="n">
-        <v>3285.3869832262812</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="J3" t="n">
-        <v>4136.057160761343</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="K3" t="n">
-        <v>5206.987464315687</v>
+        <v>151.285930408472</v>
       </c>
       <c r="L3" t="n">
-        <v>6555.208837720694</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="M3" t="n">
-        <v>8252.518985424289</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>10389.305862064455</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>13079.36116065505</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="P3" t="n">
-        <v>16465.940135182296</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="Q3" t="n">
-        <v>20729.390465262477</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>26096.756427722645</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="S3" t="n">
-        <v>32853.86983226281</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="T3" t="n">
-        <v>41360.57160761343</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>52069.87464315688</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="V3" t="n">
-        <v>65552.08837720694</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="W3" t="n">
-        <v>82525.18985424288</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="X3" t="n">
-        <v>51025.86368230384</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>64237.756448397406</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="Z3" t="n">
-        <v>80870.54398953212</v>
+        <v>4784.081180284991</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6022.801369947008</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7582.257694815012</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9545.496890774482</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12017.068603998207</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15128.593040847201</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>19045.770223814936</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>23977.204121953306</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>30185.51157290287</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>38001.307587134346</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>47840.811802849916</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>60228.01369947008</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -572,242 +806,359 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-0.0015755717393884003</v>
+        <v>1.5155071433566587</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.001986291078807856</v>
+        <v>0.9559278129875503</v>
       </c>
       <c r="C1" t="n">
-        <v>-0.0021819101229889806</v>
+        <v>0.6023752953983911</v>
       </c>
       <c r="D1" t="n">
-        <v>-0.0022004122485141876</v>
+        <v>0.3791066485252616</v>
       </c>
       <c r="E1" t="n">
-        <v>-0.0020374853457476674</v>
+        <v>0.23815719110983752</v>
       </c>
       <c r="F1" t="n">
-        <v>-0.0016409619330399422</v>
+        <v>0.14919377537029455</v>
       </c>
       <c r="G1" t="n">
-        <v>-8.872708370972206E-4</v>
+        <v>0.09304980316155806</v>
       </c>
       <c r="H1" t="n">
-        <v>4.767889285017056E-4</v>
+        <v>0.05762098772358261</v>
       </c>
       <c r="I1" t="n">
-        <v>0.00294345875239586</v>
+        <v>0.035265743167719965</v>
       </c>
       <c r="J1" t="n">
-        <v>0.007060434168278504</v>
+        <v>0.02116096616694241</v>
       </c>
       <c r="K1" t="n">
-        <v>0.008110970493113358</v>
+        <v>0.012263047748180057</v>
       </c>
       <c r="L1" t="n">
-        <v>-0.007117964523590522</v>
+        <v>0.0066517406518590535</v>
       </c>
       <c r="M1" t="n">
-        <v>-0.014364203086578637</v>
+        <v>0.003116011918937202</v>
       </c>
       <c r="N1" t="n">
-        <v>-0.014833214072552182</v>
+        <v>8.927939501315865E-4</v>
       </c>
       <c r="O1" t="n">
-        <v>-0.016769299630373383</v>
+        <v>-4.97621462815132E-4</v>
       </c>
       <c r="P1" t="n">
-        <v>-0.028927243653922883</v>
+        <v>-0.0013549970131491822</v>
       </c>
       <c r="Q1" t="n">
-        <v>-0.034424360678995666</v>
+        <v>-0.0018636169768075626</v>
       </c>
       <c r="R1" t="n">
-        <v>-0.03393964431031285</v>
+        <v>-0.0021316225540077877</v>
       </c>
       <c r="S1" t="n">
-        <v>-0.03578020828052033</v>
+        <v>-0.002213553860643754</v>
       </c>
       <c r="T1" t="n">
-        <v>-0.03791399876994088</v>
+        <v>-0.002120621126055127</v>
       </c>
       <c r="U1" t="n">
-        <v>-0.039381903757374395</v>
+        <v>-0.0018198184096784174</v>
       </c>
       <c r="V1" t="n">
-        <v>-0.04027100368847708</v>
+        <v>-0.0012182567491648214</v>
       </c>
       <c r="W1" t="n">
-        <v>-0.040269051757936956</v>
+        <v>-1.2047768451575695E-4</v>
       </c>
       <c r="X1" t="n">
-        <v>-0.03927338645319255</v>
+        <v>0.0018637566029518614</v>
       </c>
       <c r="Y1" t="n">
-        <v>-0.040223204421713725</v>
+        <v>0.0053738409649161595</v>
       </c>
       <c r="Z1" t="n">
-        <v>-0.040314246737954446</v>
+        <v>0.00918531767956989</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>-8.595284135116877E-4</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>-0.013132415613811902</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>-0.014843645791418775</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>-0.015365068466729961</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>-0.023337275527104944</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>-0.03420491418412992</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>-0.03387619876826432</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>-0.03492422769354756</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>-0.037214694424811505</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>-0.03890233672097798</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>-0.04002791172909204</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>-0.04039630348057663</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>-0.039641954931607964</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.002366331211075628</v>
+        <v>0.04271848206612593</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0014329283551224215</v>
+        <v>0.05509478006975054</v>
       </c>
       <c r="C2" t="n">
-        <v>5.815782400079014E-4</v>
+        <v>0.05437401450100976</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.2818974670526534E-4</v>
+        <v>0.04850065353146622</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0010305939944407212</v>
+        <v>0.04117214604380525</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0018491307385403966</v>
+        <v>0.03401105225184846</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0026784363149236746</v>
+        <v>0.027645759531313988</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.003418454120574529</v>
+        <v>0.022243661321621113</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0036141144980472517</v>
+        <v>0.017770960605719345</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0013371542960732468</v>
+        <v>0.01411675349716353</v>
       </c>
       <c r="K2" t="n">
-        <v>0.008749775908778915</v>
+        <v>0.011150263162254394</v>
       </c>
       <c r="L2" t="n">
-        <v>0.012722571344057054</v>
+        <v>0.008745543950958522</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0015535486191223492</v>
+        <v>0.006790668913903572</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.008755209344936456</v>
+        <v>0.005189770745035791</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.02023668196091728</v>
+        <v>0.003862007350256155</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.02798210598431978</v>
+        <v>0.002739398384753189</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.02290863184710403</v>
+        <v>0.001764439802638629</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.024162276717295348</v>
+        <v>8.879163381147872E-4</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.027590753652773227</v>
+        <v>6.719234408835456E-5</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.030573206562767616</v>
+        <v>-7.34436304073577E-4</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.03401714394744117</v>
+        <v>-0.001545457929303106</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.038097529431857784</v>
+        <v>-0.002374952942272224</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.04273734750215249</v>
+        <v>-0.0031717929939180873</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.03368651612807517</v>
+        <v>-0.0036699390307722707</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.03771565637997619</v>
+        <v>-0.00273178307688938</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.04230856819495396</v>
+        <v>0.003922471196134297</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.014267769663694911</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.005774196513627694</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.005039816536438686</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.015684335066482594</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.027140625433170116</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.02441332747995877</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.023099633415936037</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.026382650408926546</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.029470104810204907</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.032668177611769315</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.036529675509727536</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.04096907473132734</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.04591201675922894</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>520.6987464315688</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="B3" t="n">
-        <v>655.5208837720694</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="C3" t="n">
-        <v>825.2518985424289</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="D3" t="n">
-        <v>1038.9305862064455</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>1307.936116065505</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="F3" t="n">
-        <v>1646.5940135182295</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="G3" t="n">
-        <v>2072.9390465262477</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>2609.675642772265</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="I3" t="n">
-        <v>3285.3869832262812</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="J3" t="n">
-        <v>4136.057160761343</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="K3" t="n">
-        <v>5206.987464315687</v>
+        <v>151.285930408472</v>
       </c>
       <c r="L3" t="n">
-        <v>6555.208837720694</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="M3" t="n">
-        <v>8252.518985424289</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>10389.305862064455</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>13079.36116065505</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="P3" t="n">
-        <v>16465.940135182296</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="Q3" t="n">
-        <v>20729.390465262477</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>26096.756427722645</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="S3" t="n">
-        <v>32853.86983226281</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="T3" t="n">
-        <v>41360.57160761343</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>52069.87464315688</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="V3" t="n">
-        <v>65552.08837720694</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="W3" t="n">
-        <v>82525.18985424288</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="X3" t="n">
-        <v>51025.86368230384</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>64237.756448397406</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="Z3" t="n">
-        <v>80870.54398953212</v>
+        <v>4784.081180284991</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6022.801369947008</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7582.257694815012</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9545.496890774482</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12017.068603998207</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15128.593040847201</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>19045.770223814936</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>23977.204121953306</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>30185.51157290287</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>38001.307587134346</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>47840.811802849916</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>60228.01369947008</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -825,242 +1176,359 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-0.0037008667585966388</v>
+        <v>27.525273794552962</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.0016306814869252106</v>
+        <v>32.145018645921006</v>
       </c>
       <c r="C1" t="n">
-        <v>-3.197714938614256E-4</v>
+        <v>27.521777658590278</v>
       </c>
       <c r="D1" t="n">
-        <v>5.0436368115658E-4</v>
+        <v>11.579728354654174</v>
       </c>
       <c r="E1" t="n">
-        <v>0.001015766036113363</v>
+        <v>3.152648957442606</v>
       </c>
       <c r="F1" t="n">
-        <v>0.0013238469268708906</v>
+        <v>0.6781094853248116</v>
       </c>
       <c r="G1" t="n">
-        <v>0.001495585829003377</v>
+        <v>0.03748600451742944</v>
       </c>
       <c r="H1" t="n">
-        <v>0.0015693541309218485</v>
+        <v>-0.10081422714533812</v>
       </c>
       <c r="I1" t="n">
-        <v>0.0015628066359330275</v>
+        <v>-0.10586416701469638</v>
       </c>
       <c r="J1" t="n">
-        <v>0.0014777597087044661</v>
+        <v>-0.08159950029091693</v>
       </c>
       <c r="K1" t="n">
-        <v>0.0013146183729558128</v>
+        <v>-0.0565678258010636</v>
       </c>
       <c r="L1" t="n">
-        <v>0.0011979304560310131</v>
+        <v>-0.037187683209176196</v>
       </c>
       <c r="M1" t="n">
-        <v>0.0023208224828796626</v>
+        <v>-0.023600501472913916</v>
       </c>
       <c r="N1" t="n">
-        <v>0.005561315208041892</v>
+        <v>-0.01450360854459671</v>
       </c>
       <c r="O1" t="n">
-        <v>0.005794832193856944</v>
+        <v>-0.00856008172467602</v>
       </c>
       <c r="P1" t="n">
-        <v>0.0056361682386039495</v>
+        <v>-0.0047309722590583025</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.006186149180417977</v>
+        <v>-0.0022855027883298424</v>
       </c>
       <c r="R1" t="n">
-        <v>0.007198094772585189</v>
+        <v>-7.335407440568974E-4</v>
       </c>
       <c r="S1" t="n">
-        <v>0.00822833325551555</v>
+        <v>2.4508563709072585E-4</v>
       </c>
       <c r="T1" t="n">
-        <v>0.009379225475746997</v>
+        <v>8.559709718083335E-4</v>
       </c>
       <c r="U1" t="n">
-        <v>0.010777785940474688</v>
+        <v>0.001229184727586792</v>
       </c>
       <c r="V1" t="n">
-        <v>0.012465030513228519</v>
+        <v>0.001445324755177414</v>
       </c>
       <c r="W1" t="n">
-        <v>0.01453242597199874</v>
+        <v>0.001552101516698137</v>
       </c>
       <c r="X1" t="n">
-        <v>0.010644141538777028</v>
+        <v>0.0015741553953183458</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.01230295219425658</v>
+        <v>0.0015185088881451492</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.01433238295993533</v>
+        <v>0.0013821384683079263</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>0.001207499903052258</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>0.0015709412749156297</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>0.004582272384175608</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>0.005912870438841679</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>0.0056244323311637895</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>0.005900595143399667</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>0.006811379636644686</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>0.007848228810827562</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>0.008929261935639001</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>0.010232875645107855</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>0.011805820611985833</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>0.013720518694140869</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>0.01609017793829544</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.002964072337445936</v>
+        <v>-31.187269520992473</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.002907150615404787</v>
+        <v>-17.085585833534317</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.002513898549417551</v>
+        <v>2.4447531460849863</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.002007551797469065</v>
+        <v>9.60581703731652</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.001482496327921588</v>
+        <v>6.139882493356287</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.699691747336238E-4</v>
+        <v>3.085067357742413</v>
       </c>
       <c r="G2" t="n">
-        <v>-4.6946004285366804E-4</v>
+        <v>1.4889263847957144</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7881595671330836E-5</v>
+        <v>0.7140897502405692</v>
       </c>
       <c r="I2" t="n">
-        <v>5.87465164715087E-4</v>
+        <v>0.340473638214594</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0012432272538476076</v>
+        <v>0.1598735730470527</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002142189172313289</v>
+        <v>0.07262441428116959</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0036318758701694587</v>
+        <v>0.030794712372445812</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0061385941001933465</v>
+        <v>0.011112368658400849</v>
       </c>
       <c r="N2" t="n">
-        <v>0.006169863276863564</v>
+        <v>0.00219736898698885</v>
       </c>
       <c r="O2" t="n">
-        <v>0.005068265625032286</v>
+        <v>-0.0015334599107610406</v>
       </c>
       <c r="P2" t="n">
-        <v>0.005662820047879016</v>
+        <v>-0.0028166722813734568</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.006823430597164417</v>
+        <v>-0.002985327575987551</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0078404484897809</v>
+        <v>-0.002679802961096077</v>
       </c>
       <c r="S2" t="n">
-        <v>0.008804807772692063</v>
+        <v>-0.0021991714901968846</v>
       </c>
       <c r="T2" t="n">
-        <v>0.00995897972812435</v>
+        <v>-0.00167494876929529</v>
       </c>
       <c r="U2" t="n">
-        <v>0.011259116353525299</v>
+        <v>-0.0011566174497674461</v>
       </c>
       <c r="V2" t="n">
-        <v>0.012688763778146839</v>
+        <v>-6.530537180163515E-4</v>
       </c>
       <c r="W2" t="n">
-        <v>0.014236168315417158</v>
+        <v>-1.5137975168911518E-4</v>
       </c>
       <c r="X2" t="n">
-        <v>0.011139692362565914</v>
+        <v>3.7722321567159955E-4</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.012557816796878287</v>
+        <v>9.834802172200648E-4</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.014096399120744145</v>
+        <v>0.0017684122488554352</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.0029769979228018335</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.0051518148625847625</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.006734535286147685</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.0052259030251203785</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.00532406621473437</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.006389414814612456</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.007493742947125527</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.008431690721739797</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.009513673725162096</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.010766280183692415</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.012147575316056942</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.013655685447634765</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.015252554131384223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>520.6987464315688</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="B3" t="n">
-        <v>655.5208837720694</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="C3" t="n">
-        <v>825.2518985424289</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="D3" t="n">
-        <v>1038.9305862064455</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>1307.936116065505</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="F3" t="n">
-        <v>1646.5940135182295</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="G3" t="n">
-        <v>2072.9390465262477</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>2609.675642772265</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="I3" t="n">
-        <v>3285.3869832262812</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="J3" t="n">
-        <v>4136.057160761343</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="K3" t="n">
-        <v>5206.987464315687</v>
+        <v>151.285930408472</v>
       </c>
       <c r="L3" t="n">
-        <v>6555.208837720694</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="M3" t="n">
-        <v>8252.518985424289</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>10389.305862064455</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>13079.36116065505</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="P3" t="n">
-        <v>16465.940135182296</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="Q3" t="n">
-        <v>20729.390465262477</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>26096.756427722645</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="S3" t="n">
-        <v>32853.86983226281</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="T3" t="n">
-        <v>41360.57160761343</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>52069.87464315688</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="V3" t="n">
-        <v>65552.08837720694</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="W3" t="n">
-        <v>82525.18985424288</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="X3" t="n">
-        <v>51025.86368230384</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>64237.756448397406</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="Z3" t="n">
-        <v>80870.54398953212</v>
+        <v>4784.081180284991</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6022.801369947008</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7582.257694815012</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9545.496890774482</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12017.068603998207</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15128.593040847201</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>19045.770223814936</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>23977.204121953306</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>30185.51157290287</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>38001.307587134346</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>47840.811802849916</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>60228.01369947008</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
